--- a/Graduate_Information_Management/StudentList.xlsx
+++ b/Graduate_Information_Management/StudentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\PycharmProjects\Graduate_Information_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11613A38-AA3F-4D25-AA48-FFF52B66A7A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F8BE53-69F6-4AAD-9EDC-26600890DBD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4788" yWindow="444" windowWidth="16296" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>毕业学生学号</t>
   </si>
   <si>
+    <t>姓名</t>
+  </si>
+  <si>
     <t>学生联系电话</t>
   </si>
   <si>
@@ -34,9 +37,18 @@
     <t>学院</t>
   </si>
   <si>
+    <t>就业</t>
+  </si>
+  <si>
     <t>就业公司</t>
   </si>
   <si>
+    <t>电子邮箱地址信息</t>
+  </si>
+  <si>
+    <t>月薪/元</t>
+  </si>
+  <si>
     <t>王 萌</t>
   </si>
   <si>
@@ -49,75 +61,64 @@
     <t>阿里</t>
   </si>
   <si>
-    <t>李 飞</t>
+    <t>2457212911@qq.com</t>
+  </si>
+  <si>
+    <t>岑 美</t>
+  </si>
+  <si>
+    <t>理学院</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>137722871@163.com</t>
+  </si>
+  <si>
+    <t>陈 淑</t>
+  </si>
+  <si>
+    <t>文学院</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>3wdwwqdq@163.com</t>
+  </si>
+  <si>
+    <t>符 理</t>
+  </si>
+  <si>
+    <t>241352432@qq.com</t>
+  </si>
+  <si>
+    <t>张 舞</t>
+  </si>
+  <si>
+    <t>15339895674</t>
+  </si>
+  <si>
+    <t>滴滴</t>
+  </si>
+  <si>
+    <t>张 来</t>
+  </si>
+  <si>
+    <t>13772122234</t>
   </si>
   <si>
     <t>商学院</t>
   </si>
   <si>
-    <t>A股</t>
-  </si>
-  <si>
-    <t>姚 苏</t>
-  </si>
-  <si>
-    <t>岑 美</t>
-  </si>
-  <si>
-    <t>理学院</t>
-  </si>
-  <si>
-    <t>陈 淑</t>
-  </si>
-  <si>
-    <t>文学院</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>符 理</t>
-  </si>
-  <si>
-    <t>陈 红</t>
-  </si>
-  <si>
-    <t>西悉尼</t>
-  </si>
-  <si>
-    <t>电子邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2457212911@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2457212912@qq.com</t>
-  </si>
-  <si>
-    <t>2457212913@qq.com</t>
-  </si>
-  <si>
-    <t>2457212914@qq.com</t>
-  </si>
-  <si>
-    <t>2457212917@qq.com</t>
-  </si>
-  <si>
-    <t>未来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为</t>
+    <t>美团</t>
+  </si>
+  <si>
+    <t>1443524121@qq.com</t>
+  </si>
+  <si>
+    <t>124423132@163.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -469,38 +470,41 @@
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1705990548</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>13772991130</v>
@@ -509,170 +513,171 @@
         <v>2018</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1705990534</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>13456347812</v>
+      </c>
+      <c r="D3">
+        <v>2017</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1705990517</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>13772991145</v>
+      </c>
+      <c r="D4">
+        <v>2019</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1705990527</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>15339257456</v>
+      </c>
+      <c r="D5">
+        <v>2016</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1705990549</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>15339257765</v>
-      </c>
-      <c r="D3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1705990738</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>2018</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1706990456</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
         <v>2019</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1705990551</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>15678903456</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1705990534</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>13456347812</v>
-      </c>
-      <c r="D5">
-        <v>2017</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1705990517</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>13772991145</v>
-      </c>
-      <c r="D6">
-        <v>2015</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1705990527</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>15339257456</v>
-      </c>
-      <c r="D7">
-        <v>2016</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1705990537</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>15339237234</v>
-      </c>
-      <c r="D8">
-        <v>2017</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>6500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{272A9BEF-8122-4DCE-B9E6-A6F2180974F9}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H6" r:id="rId6" xr:uid="{81EB7DAE-FE23-47A8-940D-959F186C50C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>